--- a/data/trans_orig/P1401-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1401-Edad-trans_orig.xlsx
@@ -912,19 +912,19 @@
         <v>2935</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8165</v>
+        <v>7883</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.004271982633967056</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.001288105075201823</v>
+        <v>0.001293349889146305</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0118831560648624</v>
+        <v>0.01147308063714684</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -946,19 +946,19 @@
         <v>2935</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>893</v>
+        <v>897</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>8108</v>
+        <v>9080</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.002262489680737676</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0006885033200820966</v>
+        <v>0.0006915460859597729</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.006249956324209706</v>
+        <v>0.006999162496249904</v>
       </c>
     </row>
     <row r="8">
@@ -975,19 +975,19 @@
         <v>684152</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>678922</v>
+        <v>679204</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>686202</v>
+        <v>686198</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9957280173660329</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9881168439351365</v>
+        <v>0.9885269193628524</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9987118949247982</v>
+        <v>0.9987066501108537</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>571</v>
@@ -1009,19 +1009,19 @@
         <v>1294407</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1289234</v>
+        <v>1288262</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1296449</v>
+        <v>1296445</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9977375103192623</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9937500436757907</v>
+        <v>0.99300083750375</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9993114966799179</v>
+        <v>0.9993084539140402</v>
       </c>
     </row>
     <row r="9">
@@ -1113,19 +1113,19 @@
         <v>5096</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1894</v>
+        <v>1986</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11675</v>
+        <v>11503</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.00747379887467325</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002777346109695831</v>
+        <v>0.002912710069748825</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01712264031904861</v>
+        <v>0.01686968930388896</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -1134,19 +1134,19 @@
         <v>10241</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4694</v>
+        <v>4417</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>20817</v>
+        <v>19081</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01443256360938096</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.006615820487732058</v>
+        <v>0.00622508647489173</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02933797796111786</v>
+        <v>0.02689017267861786</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>13</v>
@@ -1155,19 +1155,19 @@
         <v>15337</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>8644</v>
+        <v>8839</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>25505</v>
+        <v>25683</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01102247597157194</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.006211974567104071</v>
+        <v>0.006352329943718401</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01832961237497068</v>
+        <v>0.01845754457181659</v>
       </c>
     </row>
     <row r="11">
@@ -1184,19 +1184,19 @@
         <v>676767</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>670188</v>
+        <v>670360</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>679969</v>
+        <v>679877</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9925262011253267</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9828773596809515</v>
+        <v>0.9831303106961111</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9972226538903042</v>
+        <v>0.9970872899302512</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>658</v>
@@ -1205,19 +1205,19 @@
         <v>699333</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>688757</v>
+        <v>690493</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>704880</v>
+        <v>705157</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9855674363906191</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9706620220388823</v>
+        <v>0.9731098273213822</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.993384179512268</v>
+        <v>0.9937749135251083</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1304</v>
@@ -1226,19 +1226,19 @@
         <v>1376100</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1365932</v>
+        <v>1365754</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1382793</v>
+        <v>1382598</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9889775240284281</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.98167038762503</v>
+        <v>0.9815424554281839</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9937880254328962</v>
+        <v>0.9936476700562817</v>
       </c>
     </row>
     <row r="12">
@@ -1330,19 +1330,19 @@
         <v>5269</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2073</v>
+        <v>2035</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11325</v>
+        <v>11862</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.008573321489773971</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.003372417318321536</v>
+        <v>0.003310324970898699</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01842673990741978</v>
+        <v>0.01929975254578236</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>16</v>
@@ -1351,19 +1351,19 @@
         <v>19836</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>12174</v>
+        <v>11814</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>32087</v>
+        <v>31592</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03229213457768507</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01981934368037171</v>
+        <v>0.01923327950922755</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05223718029305212</v>
+        <v>0.05143074086134705</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>21</v>
@@ -1372,19 +1372,19 @@
         <v>25105</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>15538</v>
+        <v>15610</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>37382</v>
+        <v>37350</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02042932303695425</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01264415632931651</v>
+        <v>0.01270223997889979</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03041972141487008</v>
+        <v>0.03039313706739724</v>
       </c>
     </row>
     <row r="14">
@@ -1401,19 +1401,19 @@
         <v>609348</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>603292</v>
+        <v>602755</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>612544</v>
+        <v>612582</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.991426678510226</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9815732600925797</v>
+        <v>0.9807002474542175</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9966275826816785</v>
+        <v>0.9966896750291013</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>522</v>
@@ -1422,19 +1422,19 @@
         <v>594428</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>582177</v>
+        <v>582672</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>602090</v>
+        <v>602450</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9677078654223149</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.947762819706948</v>
+        <v>0.948569259138653</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9801806563196283</v>
+        <v>0.9807667204907725</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1065</v>
@@ -1443,19 +1443,19 @@
         <v>1203775</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1191498</v>
+        <v>1191530</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1213342</v>
+        <v>1213270</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9795706769630458</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.96958027858513</v>
+        <v>0.9696068629326025</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9873558436706835</v>
+        <v>0.9872977600211001</v>
       </c>
     </row>
     <row r="15">
@@ -1547,19 +1547,19 @@
         <v>7234</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3152</v>
+        <v>3127</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13534</v>
+        <v>14411</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01684569110293228</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.007339469518671816</v>
+        <v>0.007281262289368359</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03151570560466761</v>
+        <v>0.03355931272213956</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>19</v>
@@ -1568,19 +1568,19 @@
         <v>20005</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>12533</v>
+        <v>12753</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>30636</v>
+        <v>29819</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04467370016980268</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02798882587227351</v>
+        <v>0.02847857072289845</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06841384982218944</v>
+        <v>0.06658968612803262</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>26</v>
@@ -1589,19 +1589,19 @@
         <v>27239</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>17775</v>
+        <v>18629</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>38140</v>
+        <v>38926</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0310510812438944</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02026274349041384</v>
+        <v>0.02123660951078892</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04347744532320914</v>
+        <v>0.0443735337890319</v>
       </c>
     </row>
     <row r="17">
@@ -1618,19 +1618,19 @@
         <v>422195</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>415895</v>
+        <v>415018</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>426277</v>
+        <v>426302</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9831543088970677</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9684842943953323</v>
+        <v>0.9664406872778605</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9926605304813282</v>
+        <v>0.9927187377106317</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>387</v>
@@ -1639,19 +1639,19 @@
         <v>427795</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>417164</v>
+        <v>417981</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>435267</v>
+        <v>435047</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9553262998301973</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9315861501778104</v>
+        <v>0.9334103138719672</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9720111741277265</v>
+        <v>0.9715214292771015</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>773</v>
@@ -1660,19 +1660,19 @@
         <v>849990</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>839089</v>
+        <v>838303</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>859454</v>
+        <v>858600</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9689489187561056</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.956522554676791</v>
+        <v>0.9556264662109681</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.979737256509587</v>
+        <v>0.978763390489211</v>
       </c>
     </row>
     <row r="18">
@@ -1764,19 +1764,19 @@
         <v>11354</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5147</v>
+        <v>5873</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>21400</v>
+        <v>21130</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03665074525679229</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01661601868337659</v>
+        <v>0.01895830416785441</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06907836552910682</v>
+        <v>0.06820684369980309</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>12</v>
@@ -1785,19 +1785,19 @@
         <v>11705</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>6645</v>
+        <v>6222</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>19597</v>
+        <v>19600</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03306661515710339</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0187715021110204</v>
+        <v>0.01757584597250448</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05535941517436374</v>
+        <v>0.0553686612785809</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>21</v>
@@ -1806,19 +1806,19 @@
         <v>23059</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>15162</v>
+        <v>14159</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>35530</v>
+        <v>34843</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03473932347929568</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02284235257957734</v>
+        <v>0.02133042554024698</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0535266854458606</v>
+        <v>0.05249163858686032</v>
       </c>
     </row>
     <row r="20">
@@ -1835,19 +1835,19 @@
         <v>298432</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>288386</v>
+        <v>288656</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>304639</v>
+        <v>303913</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9633492547432078</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9309216344708932</v>
+        <v>0.9317931563001972</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9833839813166236</v>
+        <v>0.9810416958321456</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>332</v>
@@ -1856,19 +1856,19 @@
         <v>342291</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>334399</v>
+        <v>334396</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>347351</v>
+        <v>347774</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9669333848428966</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9446405848256363</v>
+        <v>0.9446313387214191</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9812284978889796</v>
+        <v>0.9824241540274956</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>605</v>
@@ -1877,19 +1877,19 @@
         <v>640723</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>628252</v>
+        <v>628939</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>648620</v>
+        <v>649623</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9652606765207044</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9464733145541394</v>
+        <v>0.9475083614131397</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9771576474204227</v>
+        <v>0.978669574459753</v>
       </c>
     </row>
     <row r="21">
@@ -1981,19 +1981,19 @@
         <v>7277</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3108</v>
+        <v>3105</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>14477</v>
+        <v>13547</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02912361693259483</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01244111751455204</v>
+        <v>0.01242768073815231</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05794220636183119</v>
+        <v>0.05422183211953365</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>9</v>
@@ -2002,19 +2002,19 @@
         <v>9830</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>5329</v>
+        <v>4433</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>18487</v>
+        <v>18168</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02527149995067379</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01369986792180271</v>
+        <v>0.01139626210637645</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04752804915553175</v>
+        <v>0.04670652094839165</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>16</v>
@@ -2023,19 +2023,19 @@
         <v>17107</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>9607</v>
+        <v>9870</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>26907</v>
+        <v>25921</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02677809002918743</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01503855517911335</v>
+        <v>0.01544939485396661</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04211858503189893</v>
+        <v>0.04057619263129227</v>
       </c>
     </row>
     <row r="23">
@@ -2052,19 +2052,19 @@
         <v>242574</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>235374</v>
+        <v>236304</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>246743</v>
+        <v>246746</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9708763830674052</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9420577936381684</v>
+        <v>0.9457781678804664</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9875588824854479</v>
+        <v>0.9875723192618476</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>341</v>
@@ -2073,19 +2073,19 @@
         <v>379149</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>370492</v>
+        <v>370811</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>383650</v>
+        <v>384546</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9747285000493262</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9524719508444682</v>
+        <v>0.9532934790516079</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9863001320781972</v>
+        <v>0.9886037378936235</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>556</v>
@@ -2094,19 +2094,19 @@
         <v>621723</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>611923</v>
+        <v>612909</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>629223</v>
+        <v>628960</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9732219099708126</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9578814149681011</v>
+        <v>0.9594238073687079</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9849614448208867</v>
+        <v>0.9845506051460334</v>
       </c>
     </row>
     <row r="24">
@@ -2198,19 +2198,19 @@
         <v>39165</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>27619</v>
+        <v>27750</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>55431</v>
+        <v>53614</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01142913561301609</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.008059799138195253</v>
+        <v>0.008098023121163835</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01617597474595156</v>
+        <v>0.01564549599607374</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>64</v>
@@ -2219,19 +2219,19 @@
         <v>71617</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>55584</v>
+        <v>55302</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>90904</v>
+        <v>91415</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02014494967712189</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01563507143042243</v>
+        <v>0.01555557253733681</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02557017915098592</v>
+        <v>0.02571390034372019</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>100</v>
@@ -2240,19 +2240,19 @@
         <v>110782</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>90900</v>
+        <v>91205</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>133959</v>
+        <v>134930</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01586713640480587</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01301943790997223</v>
+        <v>0.01306309214784829</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01918661199189271</v>
+        <v>0.01932570415121194</v>
       </c>
     </row>
     <row r="26">
@@ -2269,19 +2269,19 @@
         <v>3387614</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3371348</v>
+        <v>3373165</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3399160</v>
+        <v>3399029</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9885708643869839</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9838240252540474</v>
+        <v>0.9843545040039265</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9919402008618046</v>
+        <v>0.9919019768788367</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3232</v>
@@ -2290,19 +2290,19 @@
         <v>3483481</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3464194</v>
+        <v>3463683</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3499514</v>
+        <v>3499796</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9798550503228781</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9744298208490141</v>
+        <v>0.9742860996562799</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9843649285695776</v>
+        <v>0.9844444274626631</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6405</v>
@@ -2311,19 +2311,19 @@
         <v>6871095</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6847918</v>
+        <v>6846947</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6890977</v>
+        <v>6890672</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9841328635951941</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9808133880081074</v>
+        <v>0.9806742958487883</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.986980562090028</v>
+        <v>0.9869369078521517</v>
       </c>
     </row>
     <row r="27">
@@ -2843,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>4890</v>
+        <v>5694</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.001732561728376409</v>
@@ -2852,7 +2852,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.008676734353879511</v>
+        <v>0.01010389695271633</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1</v>
@@ -2864,7 +2864,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>4917</v>
+        <v>4908</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0008460488930865689</v>
@@ -2873,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.004260380699468172</v>
+        <v>0.004252721648852415</v>
       </c>
     </row>
     <row r="8">
@@ -2903,7 +2903,7 @@
         <v>562568</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>558654</v>
+        <v>557850</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>563544</v>
@@ -2912,7 +2912,7 @@
         <v>0.9982674382716236</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9913232656461205</v>
+        <v>0.9898961030472835</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -2924,7 +2924,7 @@
         <v>1153064</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1149123</v>
+        <v>1149132</v>
       </c>
       <c r="T8" s="5" t="n">
         <v>1154040</v>
@@ -2933,7 +2933,7 @@
         <v>0.9991539511069134</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9957396193005319</v>
+        <v>0.9957472783511475</v>
       </c>
       <c r="W8" s="6" t="n">
         <v>1</v>
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5141</v>
+        <v>5166</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.001519188640052946</v>
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.007682794544880401</v>
+        <v>0.00772118510057684</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -3049,19 +3049,19 @@
         <v>9637</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4409</v>
+        <v>4571</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17445</v>
+        <v>16949</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01457026863476588</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.006666039549269284</v>
+        <v>0.006910817182035492</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02637603012609011</v>
+        <v>0.02562670044055458</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>10</v>
@@ -3070,19 +3070,19 @@
         <v>10653</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5357</v>
+        <v>5437</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>20263</v>
+        <v>19440</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.008006911846876812</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.004026483399052283</v>
+        <v>0.004086371828583449</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01523014325627817</v>
+        <v>0.01461146674805436</v>
       </c>
     </row>
     <row r="11">
@@ -3099,7 +3099,7 @@
         <v>668081</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>663956</v>
+        <v>663931</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>669097</v>
@@ -3108,7 +3108,7 @@
         <v>0.998480811359947</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9923172054551196</v>
+        <v>0.9922788148994233</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -3120,19 +3120,19 @@
         <v>651749</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>643941</v>
+        <v>644437</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>656977</v>
+        <v>656815</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9854297313652342</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9736239698739099</v>
+        <v>0.9743732995594455</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9933339604507306</v>
+        <v>0.9930891828179645</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1293</v>
@@ -3141,19 +3141,19 @@
         <v>1319830</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1310220</v>
+        <v>1311043</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1325126</v>
+        <v>1325046</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9919930881531231</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9847698567437217</v>
+        <v>0.9853885332519456</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9959735166009477</v>
+        <v>0.9959136281714166</v>
       </c>
     </row>
     <row r="12">
@@ -3245,19 +3245,19 @@
         <v>6363</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2406</v>
+        <v>2274</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>14008</v>
+        <v>13457</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.009848811473049992</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.003724041474495979</v>
+        <v>0.003519855591302446</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02168182616102467</v>
+        <v>0.02083042819418587</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>13</v>
@@ -3266,19 +3266,19 @@
         <v>13860</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>7976</v>
+        <v>7724</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>22739</v>
+        <v>22444</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02135268394608682</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01228825882496716</v>
+        <v>0.01190021795816975</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03503210134108304</v>
+        <v>0.03457807135106381</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>19</v>
@@ -3287,19 +3287,19 @@
         <v>20222</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>12467</v>
+        <v>12409</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>31255</v>
+        <v>31601</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01561419857014525</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.00962586240431919</v>
+        <v>0.009581039189801665</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02413281245865727</v>
+        <v>0.02439969883963726</v>
       </c>
     </row>
     <row r="14">
@@ -3316,19 +3316,19 @@
         <v>639685</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>632040</v>
+        <v>632591</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>643642</v>
+        <v>643774</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9901511885269501</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9783181738389752</v>
+        <v>0.9791695718058139</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.996275958525504</v>
+        <v>0.9964801444086974</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>589</v>
@@ -3337,19 +3337,19 @@
         <v>635217</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>626338</v>
+        <v>626633</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>641101</v>
+        <v>641353</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9786473160539132</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9649678986589167</v>
+        <v>0.9654219286489359</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9877117411750328</v>
+        <v>0.9880997820418301</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1165</v>
@@ -3358,19 +3358,19 @@
         <v>1274903</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1263870</v>
+        <v>1263524</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1282658</v>
+        <v>1282716</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9843858014298548</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9758671875413427</v>
+        <v>0.9756003011603627</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9903741375956807</v>
+        <v>0.9904189608101983</v>
       </c>
     </row>
     <row r="15">
@@ -3462,19 +3462,19 @@
         <v>5002</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1941</v>
+        <v>1945</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11144</v>
+        <v>11045</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01046685667096451</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004060444085319954</v>
+        <v>0.004069939820084469</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02331874177924367</v>
+        <v>0.02310976164881653</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>12</v>
@@ -3483,19 +3483,19 @@
         <v>13337</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7601</v>
+        <v>6834</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>22458</v>
+        <v>23068</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02684225501089981</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01529790703368649</v>
+        <v>0.0137537170381713</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04520093459961178</v>
+        <v>0.04642806425569113</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>17</v>
@@ -3504,19 +3504,19 @@
         <v>18339</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>10755</v>
+        <v>10982</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>28245</v>
+        <v>27431</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01881356959178442</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01103311839154522</v>
+        <v>0.01126591788063817</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02897658949118926</v>
+        <v>0.02814148067161668</v>
       </c>
     </row>
     <row r="17">
@@ -3533,19 +3533,19 @@
         <v>472916</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>466774</v>
+        <v>466873</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>475977</v>
+        <v>475973</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9895331433290355</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9766812582207564</v>
+        <v>0.9768902383511833</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9959395559146801</v>
+        <v>0.9959300601799155</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>421</v>
@@ -3554,19 +3554,19 @@
         <v>483512</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>474391</v>
+        <v>473781</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>489248</v>
+        <v>490015</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9731577449891002</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9547990654003881</v>
+        <v>0.9535719357443088</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9847020929663134</v>
+        <v>0.9862462829618286</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>840</v>
@@ -3575,19 +3575,19 @@
         <v>956428</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>946522</v>
+        <v>947336</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>964012</v>
+        <v>963785</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9811864304082156</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9710234105088108</v>
+        <v>0.9718585193283834</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9889668816084549</v>
+        <v>0.9887340821193619</v>
       </c>
     </row>
     <row r="18">
@@ -3679,19 +3679,19 @@
         <v>5826</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1997</v>
+        <v>2827</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>12070</v>
+        <v>12874</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01742476911288319</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.005972000607907794</v>
+        <v>0.008455020655672109</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03610115694624731</v>
+        <v>0.03850816741280513</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>18</v>
@@ -3700,19 +3700,19 @@
         <v>18553</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>11395</v>
+        <v>11383</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>28861</v>
+        <v>28298</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04911207585882206</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03016368315284322</v>
+        <v>0.0301328765335342</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0764002670468024</v>
+        <v>0.07491049186850915</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>24</v>
@@ -3721,19 +3721,19 @@
         <v>24378</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>16179</v>
+        <v>15600</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>36401</v>
+        <v>35997</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03423476055459759</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0227210323787025</v>
+        <v>0.02190704812773589</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05111905173252228</v>
+        <v>0.05055103097644589</v>
       </c>
     </row>
     <row r="20">
@@ -3750,19 +3750,19 @@
         <v>328504</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>322260</v>
+        <v>321456</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>332333</v>
+        <v>331503</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9825752308871168</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9638988430537525</v>
+        <v>0.9614918325871948</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9940279993920921</v>
+        <v>0.9915449793443279</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>336</v>
@@ -3771,19 +3771,19 @@
         <v>359209</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>348901</v>
+        <v>349464</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>366367</v>
+        <v>366379</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.950887924141178</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9235997329531974</v>
+        <v>0.9250895081314907</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9698363168471568</v>
+        <v>0.9698671234664658</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>655</v>
@@ -3792,19 +3792,19 @@
         <v>687714</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>675691</v>
+        <v>676095</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>695913</v>
+        <v>696492</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9657652394454024</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9488809482674776</v>
+        <v>0.9494489690235539</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9772789676212975</v>
+        <v>0.9780929518722641</v>
       </c>
     </row>
     <row r="21">
@@ -3896,19 +3896,19 @@
         <v>11527</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>6601</v>
+        <v>6138</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>19657</v>
+        <v>19381</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04485220613525947</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02568454712266907</v>
+        <v>0.02388184426047428</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07648588823099992</v>
+        <v>0.07541428820922597</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>10</v>
@@ -3917,19 +3917,19 @@
         <v>14789</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>7522</v>
+        <v>7394</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>26773</v>
+        <v>26790</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03695602202655432</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01879630422028655</v>
+        <v>0.01847720353062123</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06690435554397675</v>
+        <v>0.06694602721260964</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>23</v>
@@ -3938,19 +3938,19 @@
         <v>26316</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>16743</v>
+        <v>17084</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>39445</v>
+        <v>40838</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04004397916750625</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02547829128860481</v>
+        <v>0.02599659944573242</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06002327631900858</v>
+        <v>0.06214323574905788</v>
       </c>
     </row>
     <row r="23">
@@ -3967,19 +3967,19 @@
         <v>245471</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>237341</v>
+        <v>237617</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>250397</v>
+        <v>250860</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9551477938647406</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.923514111769</v>
+        <v>0.924585711790774</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9743154528773309</v>
+        <v>0.9761181557395257</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>291</v>
@@ -3988,19 +3988,19 @@
         <v>385380</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>373396</v>
+        <v>373379</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>392647</v>
+        <v>392775</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9630439779734457</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9330956444560234</v>
+        <v>0.9330539727873904</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9812036957797134</v>
+        <v>0.9815227964693788</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>580</v>
@@ -4009,19 +4009,19 @@
         <v>630851</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>617722</v>
+        <v>616329</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>640424</v>
+        <v>640083</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9599560208324938</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9399767236809914</v>
+        <v>0.9378567642509426</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9745217087113953</v>
+        <v>0.9740034005542677</v>
       </c>
     </row>
     <row r="24">
@@ -4113,19 +4113,19 @@
         <v>29734</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>19942</v>
+        <v>20409</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>41177</v>
+        <v>41854</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.008759891864754007</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.005875129054632713</v>
+        <v>0.006012663502166194</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01213118422083618</v>
+        <v>0.01233062206713025</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>63</v>
@@ -4134,19 +4134,19 @@
         <v>71150</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>55028</v>
+        <v>55157</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>91385</v>
+        <v>90289</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02007321760088127</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01552466136360415</v>
+        <v>0.0155609749644652</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02578182698676238</v>
+        <v>0.02547279040303148</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>94</v>
@@ -4155,19 +4155,19 @@
         <v>100884</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>80781</v>
+        <v>82015</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>121736</v>
+        <v>123783</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01453899265530997</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01164178854685763</v>
+        <v>0.01181961781437155</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01754400291887724</v>
+        <v>0.01783899248062969</v>
       </c>
     </row>
     <row r="26">
@@ -4184,19 +4184,19 @@
         <v>3364616</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3353173</v>
+        <v>3352496</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3374408</v>
+        <v>3373941</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.991240108135246</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9878688157791637</v>
+        <v>0.9876693779328696</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9941248709453673</v>
+        <v>0.9939873364978338</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3275</v>
@@ -4205,19 +4205,19 @@
         <v>3473392</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3453157</v>
+        <v>3454253</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3489514</v>
+        <v>3489385</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9799267823991187</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9742181730132374</v>
+        <v>0.9745272095969685</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9844753386363957</v>
+        <v>0.9844390250355347</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6475</v>
@@ -4226,19 +4226,19 @@
         <v>6838008</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6817156</v>
+        <v>6815109</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6858111</v>
+        <v>6856877</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.98546100734469</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.982455997081123</v>
+        <v>0.9821610075193704</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9883582114531425</v>
+        <v>0.9881803821856285</v>
       </c>
     </row>
     <row r="27">
@@ -4745,7 +4745,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10073</v>
+        <v>10586</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.003816236648286034</v>
@@ -4754,7 +4754,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02112300301010659</v>
+        <v>0.02219802916546305</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>4914</v>
+        <v>4938</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.001946227235783933</v>
@@ -4775,7 +4775,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.009807396151082495</v>
+        <v>0.009854923472948047</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2</v>
@@ -4787,7 +4787,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>9122</v>
+        <v>10087</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.002858102063261024</v>
@@ -4796,7 +4796,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.009327594118734401</v>
+        <v>0.01031411853715451</v>
       </c>
     </row>
     <row r="8">
@@ -4813,16 +4813,16 @@
         <v>475070</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>466817</v>
+        <v>466304</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>476890</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9961837633517139</v>
+        <v>0.9961837633517141</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9788769969898929</v>
+        <v>0.977801970834537</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -4834,16 +4834,16 @@
         <v>500108</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>496169</v>
+        <v>496145</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>501083</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9980537727642159</v>
+        <v>0.9980537727642161</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9901926038489175</v>
+        <v>0.9901450765270519</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -4855,16 +4855,16 @@
         <v>975178</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>968851</v>
+        <v>967886</v>
       </c>
       <c r="T8" s="5" t="n">
         <v>977973</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.997141897936739</v>
+        <v>0.9971418979367389</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9906724058812656</v>
+        <v>0.9896858814628455</v>
       </c>
       <c r="W8" s="6" t="n">
         <v>1</v>
@@ -4962,7 +4962,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8857</v>
+        <v>8880</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.004099499910036063</v>
@@ -4971,7 +4971,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01429189287734374</v>
+        <v>0.01432849111186349</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -4980,19 +4980,19 @@
         <v>5174</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2124</v>
+        <v>2138</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>10074</v>
+        <v>9972</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.008325946096662156</v>
+        <v>0.00832594609666216</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.003416866449174898</v>
+        <v>0.003440540070858898</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01620942928685814</v>
+        <v>0.01604466826326759</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>9</v>
@@ -5001,19 +5001,19 @@
         <v>7715</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3849</v>
+        <v>3707</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>14704</v>
+        <v>14478</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.006215735133928147</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.003101095110776406</v>
+        <v>0.002986755658404502</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01184638486719077</v>
+        <v>0.01166455560733303</v>
       </c>
     </row>
     <row r="11">
@@ -5030,16 +5030,16 @@
         <v>617178</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>610862</v>
+        <v>610839</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>619719</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.995900500089964</v>
+        <v>0.9959005000899638</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9857081071226564</v>
+        <v>0.9856715088881367</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -5051,19 +5051,19 @@
         <v>616314</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>611414</v>
+        <v>611516</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>619364</v>
+        <v>619350</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9916740539033378</v>
+        <v>0.9916740539033381</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9837905707131418</v>
+        <v>0.9839553317367337</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.996583133550825</v>
+        <v>0.996559459929141</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1381</v>
@@ -5072,19 +5072,19 @@
         <v>1233492</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1226503</v>
+        <v>1226729</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1237358</v>
+        <v>1237500</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9937842648660719</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9881536151328094</v>
+        <v>0.9883354443926667</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9968989048892237</v>
+        <v>0.9970132443415952</v>
       </c>
     </row>
     <row r="12">
@@ -5176,19 +5176,19 @@
         <v>9645</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4499</v>
+        <v>4635</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>17391</v>
+        <v>17647</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01381105311397037</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.006441280219565352</v>
+        <v>0.006636438092053478</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02490220453543082</v>
+        <v>0.0252678128531325</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>30</v>
@@ -5197,19 +5197,19 @@
         <v>19083</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>12960</v>
+        <v>13447</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>26517</v>
+        <v>27507</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.02593503699154306</v>
+        <v>0.02593503699154307</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01761380963900036</v>
+        <v>0.01827560599557391</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03603933713769324</v>
+        <v>0.03738406866759277</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>39</v>
@@ -5218,19 +5218,19 @@
         <v>28728</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>19819</v>
+        <v>19726</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>38942</v>
+        <v>38637</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.02003112704286216</v>
+        <v>0.02003112704286217</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01381945062725562</v>
+        <v>0.01375440848334642</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02715292537130531</v>
+        <v>0.0269401353169364</v>
       </c>
     </row>
     <row r="14">
@@ -5247,19 +5247,19 @@
         <v>688742</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>680996</v>
+        <v>680740</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>693888</v>
+        <v>693752</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9861889468860299</v>
+        <v>0.9861889468860295</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9750977954645692</v>
+        <v>0.9747321871468674</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9935587197804346</v>
+        <v>0.9933635619079466</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1109</v>
@@ -5268,19 +5268,19 @@
         <v>716704</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>709270</v>
+        <v>708280</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>722827</v>
+        <v>722340</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9740649630084567</v>
+        <v>0.9740649630084571</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9639606628623072</v>
+        <v>0.9626159313324072</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9823861903609998</v>
+        <v>0.981724394004426</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1763</v>
@@ -5289,19 +5289,19 @@
         <v>1405446</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1395232</v>
+        <v>1395537</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1414355</v>
+        <v>1414448</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9799688729571377</v>
+        <v>0.9799688729571379</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.972847074628695</v>
+        <v>0.9730598646830637</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9861805493727445</v>
+        <v>0.9862455915166535</v>
       </c>
     </row>
     <row r="15">
@@ -5393,19 +5393,19 @@
         <v>20990</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>13810</v>
+        <v>13788</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>33070</v>
+        <v>31833</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03455667592572061</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0227362566628295</v>
+        <v>0.02269941719114951</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05444324980073023</v>
+        <v>0.05240756203805512</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>36</v>
@@ -5414,19 +5414,19 @@
         <v>20462</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>14723</v>
+        <v>14718</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>27708</v>
+        <v>28130</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03378491300508072</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02430896585918012</v>
+        <v>0.02430082451567325</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04574992107217691</v>
+        <v>0.04644672420356631</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>59</v>
@@ -5435,19 +5435,19 @@
         <v>41452</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>31206</v>
+        <v>31239</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>53293</v>
+        <v>53558</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03417135794379934</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02572498636642866</v>
+        <v>0.0257526916563914</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04393305791102169</v>
+        <v>0.04415104690681711</v>
       </c>
     </row>
     <row r="17">
@@ -5464,19 +5464,19 @@
         <v>586424</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>574344</v>
+        <v>575581</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>593604</v>
+        <v>593626</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9654433240742795</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9455567501992699</v>
+        <v>0.9475924379619447</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9772637433371707</v>
+        <v>0.9773005828088507</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>961</v>
@@ -5485,19 +5485,19 @@
         <v>585181</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>577935</v>
+        <v>577513</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>590920</v>
+        <v>590925</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9662150869949193</v>
+        <v>0.9662150869949194</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9542500789278233</v>
+        <v>0.9535532757964338</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9756910341408198</v>
+        <v>0.9756991754843269</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1599</v>
@@ -5506,19 +5506,19 @@
         <v>1171605</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1159764</v>
+        <v>1159499</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1181851</v>
+        <v>1181818</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9658286420562007</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9560669420889781</v>
+        <v>0.9558489530931825</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9742750136335714</v>
+        <v>0.9742473083436086</v>
       </c>
     </row>
     <row r="18">
@@ -5610,19 +5610,19 @@
         <v>17677</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>12198</v>
+        <v>11955</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>25657</v>
+        <v>26092</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04358940684123623</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03007873981015461</v>
+        <v>0.02947857952738053</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06326679638914566</v>
+        <v>0.0643381596360333</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>39</v>
@@ -5631,19 +5631,19 @@
         <v>20168</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>13916</v>
+        <v>15064</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>27487</v>
+        <v>27836</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.04599362016684683</v>
+        <v>0.04599362016684684</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03173551283337171</v>
+        <v>0.03435409930502056</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06268458083668635</v>
+        <v>0.0634804812820669</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>67</v>
@@ -5652,19 +5652,19 @@
         <v>37846</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>30017</v>
+        <v>29475</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>48354</v>
+        <v>47947</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04483845161160049</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03556283218709776</v>
+        <v>0.03492152920196626</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05728820114177752</v>
+        <v>0.0568065470321431</v>
       </c>
     </row>
     <row r="20">
@@ -5681,19 +5681,19 @@
         <v>387867</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>379887</v>
+        <v>379452</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>393346</v>
+        <v>393589</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9564105931587638</v>
+        <v>0.9564105931587636</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9367332036108542</v>
+        <v>0.9356618403639663</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9699212601898454</v>
+        <v>0.9705214204726191</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>787</v>
@@ -5702,19 +5702,19 @@
         <v>418333</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>411014</v>
+        <v>410665</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>424585</v>
+        <v>423437</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9540063798331533</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9373154191633136</v>
+        <v>0.9365195187179332</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9682644871666282</v>
+        <v>0.9656459006949798</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1327</v>
@@ -5723,19 +5723,19 @@
         <v>806198</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>795690</v>
+        <v>796097</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>814027</v>
+        <v>814569</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9551615483883995</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9427117988582225</v>
+        <v>0.9431934529678569</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9644371678129022</v>
+        <v>0.9650784707980338</v>
       </c>
     </row>
     <row r="21">
@@ -5827,19 +5827,19 @@
         <v>21834</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>15275</v>
+        <v>14799</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>31120</v>
+        <v>30607</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07060070530807477</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04939232437238796</v>
+        <v>0.04785340215159881</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1006298567136999</v>
+        <v>0.09896834978928301</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>35</v>
@@ -5848,19 +5848,19 @@
         <v>18955</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>13721</v>
+        <v>13563</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>25683</v>
+        <v>25946</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04086250590509576</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02957751487941712</v>
+        <v>0.02923855289952842</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05536464874138789</v>
+        <v>0.05593294331784076</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>67</v>
@@ -5869,19 +5869,19 @@
         <v>40789</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>32620</v>
+        <v>32121</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>52248</v>
+        <v>52880</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.05275782200592874</v>
+        <v>0.05275782200592875</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04219196314121064</v>
+        <v>0.0415465926766538</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06757915263901325</v>
+        <v>0.06839651894809286</v>
       </c>
     </row>
     <row r="23">
@@ -5898,19 +5898,19 @@
         <v>287423</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>278137</v>
+        <v>278650</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>293982</v>
+        <v>294458</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9293992946919252</v>
+        <v>0.9293992946919251</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8993701432863001</v>
+        <v>0.901031650210717</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9506076756276119</v>
+        <v>0.9521465978484012</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>845</v>
@@ -5919,19 +5919,19 @@
         <v>444928</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>438200</v>
+        <v>437937</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>450162</v>
+        <v>450320</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9591374940949042</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9446353512586122</v>
+        <v>0.9440670566821594</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9704224851205833</v>
+        <v>0.9707614471004721</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1270</v>
@@ -5940,19 +5940,19 @@
         <v>732351</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>720892</v>
+        <v>720260</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>740520</v>
+        <v>741019</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9472421779940711</v>
+        <v>0.9472421779940712</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9324208473609872</v>
+        <v>0.9316034810519073</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9578080368587893</v>
+        <v>0.9584534073233462</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         <v>74507</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>58964</v>
+        <v>60378</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>89690</v>
+        <v>91361</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.0211367975075312</v>
+        <v>0.02113679750753121</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01672744122566788</v>
+        <v>0.01712862388300899</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02544391999231321</v>
+        <v>0.02591787712276243</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>148</v>
@@ -6065,19 +6065,19 @@
         <v>84818</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>73122</v>
+        <v>72344</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>101369</v>
+        <v>101757</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02274603163368115</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01960948639670532</v>
+        <v>0.01940096895507384</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02718458507051721</v>
+        <v>0.02728888186621466</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>243</v>
@@ -6086,19 +6086,19 @@
         <v>159325</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>136971</v>
+        <v>139938</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>180038</v>
+        <v>182774</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.02196403072294269</v>
+        <v>0.02196403072294268</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01888243783869211</v>
+        <v>0.01929137887073013</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02481949213045919</v>
+        <v>0.02519666334247721</v>
       </c>
     </row>
     <row r="26">
@@ -6115,19 +6115,19 @@
         <v>3450497</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3435314</v>
+        <v>3433643</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3466040</v>
+        <v>3464626</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.9788632024924688</v>
+        <v>0.9788632024924689</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9745560800076868</v>
+        <v>0.9740821228772377</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9832725587743323</v>
+        <v>0.9828713761169912</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5206</v>
@@ -6136,19 +6136,19 @@
         <v>3644079</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3627528</v>
+        <v>3627140</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3655775</v>
+        <v>3656553</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9772539683663188</v>
+        <v>0.9772539683663189</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9728154149294823</v>
+        <v>0.9727111181337846</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9803905136032944</v>
+        <v>0.9805990310449261</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>8479</v>
@@ -6157,19 +6157,19 @@
         <v>7094576</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>7073863</v>
+        <v>7071127</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>7116930</v>
+        <v>7113963</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9780359692770573</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9751805078695408</v>
+        <v>0.9748033366575227</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9811175621613085</v>
+        <v>0.9807086211292697</v>
       </c>
     </row>
     <row r="27">
